--- a/bos mv descrip.xlsx
+++ b/bos mv descrip.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lcadroit-my.sharepoint.com/personal/siddharth_jain_adroit-vantage_com/Documents/Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE130070-7B14-433B-875A-7DC72F00E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{DE130070-7B14-433B-875A-7DC72F00E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{611DF631-3A3E-4FA8-8AC6-742264BE54FE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AB3686B8-D62C-43FB-834C-AD2AB663FFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>Sub Asset Description</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>MV Col</t>
-  </si>
-  <si>
     <t>Private Equity Funds</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Contegent Liabilities</t>
-  </si>
-  <si>
     <t>MarketValOrigCcy</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t xml:space="preserve">Fixed Income Structured Products </t>
   </si>
   <si>
-    <t>Market Value</t>
-  </si>
-  <si>
     <t>E-options</t>
   </si>
   <si>
@@ -133,13 +124,37 @@
   </si>
   <si>
     <t xml:space="preserve">Non-Investment Assets </t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>EquivValCcy</t>
+  </si>
+  <si>
+    <t>CurrentValCcy</t>
+  </si>
+  <si>
+    <t>Sub AssetCode</t>
+  </si>
+  <si>
+    <t>MV Col Positional Currency</t>
+  </si>
+  <si>
+    <t>Interest on bonds</t>
+  </si>
+  <si>
+    <t>ValueValCcy</t>
+  </si>
+  <si>
+    <t>MV Col Reff Currency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,16 +170,314 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -172,16 +485,223 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,294 +1013,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8F2F3C-3791-4C6C-A45D-E43526249239}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10010</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10020</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11010</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11020</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11030</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11040</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12010</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12020</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12030</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12040</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>12045</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12050</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13010</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B15" s="2">
+        <v>13020</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4">
+        <v>13030</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>13020</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B17" s="2">
+        <v>13050</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>13050</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="B18" s="2">
         <v>13060</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>13010</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>10010</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2">
+        <v>13090</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>14010</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>14020</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14050</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B23" s="2">
+        <v>14060</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2">
         <v>14090</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>12045</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>14060</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>12050</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>12030</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>12020</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>12010</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>12040</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>11010</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>11020</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>11030</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15010</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>11040</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B26" s="2">
+        <v>21010</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>14050</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>13090</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>21010</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>14020</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="D26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23">
-        <v>14010</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>14090</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <v>15010</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+    <sortCondition ref="B1:B26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
